--- a/11.07第五次笔记/ex3.xlsx
+++ b/11.07第五次笔记/ex3.xlsx
@@ -8,17 +8,53 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LGRepository\Mworks.syslab\11.07第五次笔记\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE251D8-9867-4153-847C-5A17474C2DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF4BDE9-89FF-4BA9-9842-C1E35831D4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{67EE7451-D381-4BC6-893B-68C8E81FCC05}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{67EE7451-D381-4BC6-893B-68C8E81FCC05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$C$12:$D$12</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$C$12</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$D$12</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Sheet1!$D$19</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Sheet1!$D$20</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">Sheet1!$D$21</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">5</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$C$15</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">"整数"</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">"整数"</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Sheet1!$F$19</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Sheet1!$F$20</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">Sheet1!$F$21</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
@@ -42,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>机床</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -137,6 +173,26 @@
   </si>
   <si>
     <t>x1+x2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.机床甲个数非负整数约束</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.机床乙个数非负整数约束</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>∈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnInt</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -325,7 +381,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -371,23 +427,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -703,16 +774,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86857DAB-2797-43CF-9C25-4603B0E080F1}">
-  <dimension ref="B1:G20"/>
+  <dimension ref="B1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.77734375" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" customWidth="1"/>
     <col min="3" max="8" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -818,13 +889,13 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="3"/>
@@ -832,110 +903,172 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="13">
+        <v>6</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="16">
+        <f>SUMPRODUCT(C5:D5,C12:D12)</f>
+        <v>26000</v>
+      </c>
+      <c r="D15" s="17"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="3" t="s">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="C18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E18" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="18"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="17" t="s">
+      <c r="F18" s="22"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C19" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="9">
+      <c r="D19" s="9">
+        <f>SUMPRODUCT(C6:D6,C12:D12)</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="9"/>
       <c r="E19" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="9">
+        <f>SUMPRODUCT(C7:D7,C12:D12)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="9"/>
       <c r="E20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="9">
+        <f>SUMPRODUCT(C8:D8,C12:D12)</f>
+        <v>6</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>7</v>
       </c>
+      <c r="F21" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="9">
+        <f>C12</f>
+        <v>2</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="12">
+        <f>D12</f>
+        <v>6</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C14:D14"/>
+  <mergeCells count="3">
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
